--- a/Calculator TIMER.xlsx
+++ b/Calculator TIMER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dado\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dado\Desktop\git training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501C47D-C041-455E-AB35-BA880F2ED942}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE88CBA-AB14-4AB1-8B93-1E08F8178F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{0E3B95BF-0548-4B95-98D5-DF895FBC6183}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E3B95BF-0548-4B95-98D5-DF895FBC6183}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +450,6 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <f>C11/C7</f>
-        <v>2000.0000000000002</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/Calculator TIMER.xlsx
+++ b/Calculator TIMER.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">TIM_CLK</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">CNT_CLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARR</t>
   </si>
   <si>
     <t xml:space="preserve">TIME IN SEC</t>
@@ -135,7 +132,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -172,14 +169,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0.001</v>

--- a/Calculator TIMER.xlsx
+++ b/Calculator TIMER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dado\Desktop\WITTE CODE\mynewonw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06860E51-9328-444A-AFDE-6F3CC7799F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433977E-860B-4F88-9945-F13F6A557EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TIM_CLK</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>TIME IN SEC</t>
+  </si>
+  <si>
+    <t>casd</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +432,11 @@
         <v>2000000</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>

--- a/Calculator TIMER.xlsx
+++ b/Calculator TIMER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dado\Desktop\WITTE CODE\mynewonw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433977E-860B-4F88-9945-F13F6A557EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244EC288-A520-4C49-95F1-060E5A11CCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TIM_CLK</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>casd</t>
+  </si>
+  <si>
+    <t>Mkdad</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +435,11 @@
         <v>2000000</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>

--- a/Calculator TIMER.xlsx
+++ b/Calculator TIMER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dado\Desktop\WITTE CODE\mynewonw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433977E-860B-4F88-9945-F13F6A557EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91487550-6C5F-4BA2-98BA-C2BF1A6B967A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TIM_CLK</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>casd</t>
+  </si>
+  <si>
+    <t>cwrcwc</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +435,11 @@
         <v>2000000</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
